--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-04-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,38 +431,65 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Medication.extension:classification</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/legemiddel-classification}
+</t>
+  </si>
+  <si>
+    <t>Klassifisering av legemidlet, fortrinnsvis ved bruk av ATC-kode fra WHO ATC kodesystem. Ett legemiddel kan ha inntil én ATC-kode.</t>
+  </si>
+  <si>
+    <t>Denne extension brukes for å angi legemidlets klassifisering i henhold til standardiserte kodesystemer, primært ATC-koder fra WHO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -556,17 +583,13 @@
     <t>Medication.code.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1619,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2373,7 +2396,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2594,7 +2617,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2613,17 +2636,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2660,16 +2681,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2690,7 +2709,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2704,11 +2723,13 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2721,26 +2742,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2797,7 +2816,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2806,7 +2825,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2817,14 +2836,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2837,24 +2856,26 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2902,7 +2923,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2914,16 +2935,16 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2931,10 +2952,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2945,7 +2966,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2957,16 +2978,16 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2992,13 +3013,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3016,13 +3037,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -3031,24 +3052,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3068,18 +3089,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3104,13 +3127,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3128,50 +3151,50 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3183,17 +3206,15 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3230,37 +3251,37 @@
         <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3271,14 +3292,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3294,23 +3315,21 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3346,17 +3365,19 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3368,31 +3389,29 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3401,7 +3420,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3413,19 +3432,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3462,19 +3481,17 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3492,23 +3509,25 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3526,19 +3545,23 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3586,50 +3609,50 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3641,17 +3664,15 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3688,37 +3709,37 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3729,21 +3750,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3752,23 +3773,21 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3777,7 +3796,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3804,51 +3823,51 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3856,7 +3875,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>87</v>
@@ -3871,18 +3890,20 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3891,7 +3912,7 @@
         <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>77</v>
@@ -3930,7 +3951,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3948,21 +3969,21 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3970,7 +3991,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -3985,18 +4006,18 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4044,7 +4065,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4062,21 +4083,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4084,7 +4105,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>87</v>
@@ -4099,17 +4120,17 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4158,7 +4179,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4176,21 +4197,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4213,19 +4234,17 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4274,7 +4293,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4292,25 +4311,23 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4331,19 +4348,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="O24" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4392,13 +4409,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4410,23 +4427,25 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4444,19 +4463,23 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4504,50 +4527,50 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4559,17 +4582,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4606,37 +4627,37 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4647,21 +4668,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4670,23 +4691,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4695,7 +4714,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4722,51 +4741,51 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4774,7 +4793,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4789,18 +4808,20 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4809,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4848,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4866,21 +4887,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4888,7 +4909,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
@@ -4903,18 +4924,18 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4962,7 +4983,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4980,21 +5001,21 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5002,7 +5023,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
@@ -5017,17 +5038,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5076,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5094,21 +5115,21 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5131,19 +5152,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5192,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5210,25 +5229,23 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5249,19 +5266,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5310,13 +5327,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5328,23 +5345,25 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5362,19 +5381,23 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5422,50 +5445,50 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5477,17 +5500,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5524,37 +5545,37 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5565,21 +5586,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5588,23 +5609,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5613,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>77</v>
@@ -5640,51 +5659,51 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5692,7 +5711,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5707,18 +5726,20 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5727,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>77</v>
@@ -5766,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5784,21 +5805,21 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5806,7 +5827,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5821,18 +5842,18 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5880,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5898,21 +5919,21 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5920,7 +5941,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -5935,17 +5956,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5994,7 +6015,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6012,21 +6033,21 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6049,19 +6070,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6110,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6128,25 +6147,23 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6167,19 +6184,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6228,13 +6245,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6246,23 +6263,25 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6280,19 +6299,23 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6340,50 +6363,50 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6395,17 +6418,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6442,37 +6463,37 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6483,21 +6504,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6506,23 +6527,21 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6531,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -6558,51 +6577,51 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6610,7 +6629,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -6625,18 +6644,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6645,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -6684,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6702,21 +6723,21 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6724,7 +6745,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -6739,18 +6760,18 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6798,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6816,21 +6837,21 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6838,7 +6859,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
@@ -6853,17 +6874,17 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6933,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6930,21 +6951,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6967,19 +6988,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7047,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7046,25 +7065,23 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7085,19 +7102,19 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7146,13 +7163,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7164,23 +7181,25 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7198,19 +7217,23 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7258,50 +7281,50 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7313,17 +7336,15 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7360,37 +7381,37 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7401,23 +7422,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7429,15 +7448,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7474,19 +7495,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7504,7 +7525,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7515,18 +7536,20 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7538,23 +7561,19 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7563,7 +7582,7 @@
         <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>77</v>
@@ -7602,39 +7621,39 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7642,7 +7661,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7657,18 +7676,20 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7677,7 +7698,7 @@
         <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>77</v>
@@ -7716,7 +7737,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7734,21 +7755,21 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7756,7 +7777,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7771,18 +7792,18 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7830,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7848,21 +7869,21 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7885,17 +7906,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7944,7 +7965,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7962,21 +7983,21 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7984,7 +8005,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -7999,19 +8020,17 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8060,7 +8079,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8078,21 +8097,21 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8103,7 +8122,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8115,19 +8134,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8176,7 +8195,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8194,21 +8213,21 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8219,30 +8238,32 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8266,31 +8287,31 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8308,21 +8329,21 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8333,27 +8354,29 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8378,13 +8401,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8402,7 +8425,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8417,24 +8440,24 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8445,7 +8468,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8454,10 +8477,10 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>313</v>
@@ -8465,9 +8488,7 @@
       <c r="M60" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8492,13 +8513,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8516,7 +8537,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8531,24 +8552,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8571,15 +8592,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8604,13 +8627,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8628,7 +8651,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8640,38 +8663,38 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8683,17 +8706,15 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8730,37 +8751,37 @@
         <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8771,18 +8792,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8794,23 +8815,21 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8846,17 +8865,19 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8868,27 +8889,27 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8896,10 +8917,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8908,19 +8929,23 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -8956,62 +8981,60 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9023,17 +9046,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9070,37 +9091,37 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9111,21 +9132,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9134,23 +9155,21 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9186,51 +9205,51 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9238,7 +9257,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
@@ -9253,18 +9272,20 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9312,7 +9333,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9330,21 +9351,21 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9352,7 +9373,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
@@ -9367,18 +9388,18 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9426,7 +9447,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9444,21 +9465,21 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9466,13 +9487,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>77</v>
@@ -9481,17 +9502,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9540,7 +9561,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9558,21 +9579,21 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9586,7 +9607,7 @@
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>77</v>
@@ -9595,19 +9616,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9675,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9674,25 +9693,23 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9713,19 +9730,19 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9774,13 +9791,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -9792,23 +9809,25 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9826,19 +9845,23 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9886,50 +9909,50 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -9941,17 +9964,15 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9988,37 +10009,37 @@
         <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10029,21 +10050,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10052,23 +10073,21 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10077,7 +10096,7 @@
         <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>77</v>
@@ -10104,51 +10123,51 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10156,7 +10175,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>87</v>
@@ -10171,18 +10190,20 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10191,7 +10212,7 @@
         <v>77</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10251,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10248,21 +10269,21 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10270,7 +10291,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
@@ -10285,18 +10306,18 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>343</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10344,7 +10365,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10362,21 +10383,21 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10384,13 +10405,13 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10399,17 +10420,17 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10458,7 +10479,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10476,21 +10497,21 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10504,7 +10525,7 @@
         <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
@@ -10513,19 +10534,17 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10574,7 +10593,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10592,25 +10611,23 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10631,19 +10648,19 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10692,13 +10709,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10710,23 +10727,25 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10744,19 +10763,23 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10804,50 +10827,50 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10859,17 +10882,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10906,37 +10927,37 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -10947,21 +10968,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -10970,23 +10991,21 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -10995,7 +11014,7 @@
         <v>77</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>77</v>
@@ -11022,51 +11041,51 @@
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11074,7 +11093,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>87</v>
@@ -11089,18 +11108,20 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11109,7 +11130,7 @@
         <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>77</v>
@@ -11148,7 +11169,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11166,21 +11187,21 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11188,7 +11209,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
@@ -11203,18 +11224,18 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11262,7 +11283,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11280,21 +11301,21 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11302,13 +11323,13 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11317,17 +11338,17 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11376,7 +11397,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11394,21 +11415,21 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11422,7 +11443,7 @@
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11431,19 +11452,17 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11492,7 +11511,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11510,21 +11529,21 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11535,7 +11554,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11547,19 +11566,19 @@
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11608,7 +11627,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11626,21 +11645,21 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11651,7 +11670,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11663,16 +11682,20 @@
         <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>360</v>
+        <v>172</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11720,7 +11743,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11738,21 +11761,21 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11763,7 +11786,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -11772,20 +11795,18 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11834,13 +11855,13 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
@@ -11852,7 +11873,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11863,10 +11884,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11877,7 +11898,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -11889,15 +11910,17 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11946,25 +11969,25 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -11975,21 +11998,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12001,17 +12024,15 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12060,25 +12081,25 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12089,14 +12110,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>373</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12109,26 +12130,24 @@
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12176,7 +12195,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12194,7 +12213,7 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12205,43 +12224,45 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>381</v>
+        <v>150</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12290,31 +12311,31 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" hidden="true">
@@ -12330,7 +12351,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
@@ -12345,17 +12366,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12407,7 +12428,7 @@
         <v>384</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>87</v>
@@ -12419,24 +12440,24 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12459,16 +12480,18 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>360</v>
+        <v>236</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12516,7 +12539,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12531,24 +12554,24 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12562,7 +12585,7 @@
         <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12571,13 +12594,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12628,7 +12651,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12643,24 +12666,24 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12674,7 +12697,7 @@
         <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
@@ -12683,13 +12706,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12740,7 +12763,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12752,13 +12775,13 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -12769,21 +12792,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -12795,17 +12818,15 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12854,25 +12875,25 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -12883,14 +12904,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>373</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12903,26 +12924,24 @@
         <v>77</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12970,7 +12989,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>376</v>
+        <v>181</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12988,7 +13007,7 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -12999,42 +13018,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13082,39 +13105,39 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13137,13 +13160,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13194,7 +13217,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13209,20 +13232,132 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13232,7 +13367,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -445,7 +445,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -527,7 +527,7 @@
 </t>
   </si>
   <si>
-    <t>Identifikator fra FEST eller LokalLegemiddelkatalog. Hvis ikke fylt ut, skal ingredient ha verdi. Hvis LokaltLegemiddel er fylt ut bør ingredient ha verdi.</t>
+    <t>Identifikator fra FEST, SNOMED CT eller LokalLegemiddelkatalog. Hvis ikke fylt ut, skal ingredient ha verdi. Hvis LokaltLegemiddel er fylt ut bør ingredient ha verdi.</t>
   </si>
   <si>
     <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
@@ -536,13 +536,10 @@
     <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) will have the coding.userSelected set to true.  As described in the coding datatype: "A coding may be marked as a "userSelected" if a user selected the particular coded value in a user interface (e.g. the user selects an item in a pick-list). If a user selected coding exists, it is the preferred choice for performing translations etc. Other codes can only be literal translations to alternative code systems, or codes at a lower level of granularity (e.g. a generic code for a vendor-specific primary one).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept that defines the type of a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/legemiddel-koder</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -592,6 +589,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -614,7 +614,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
@@ -627,31 +627,31 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose</t>
-  </si>
-  <si>
-    <t>FestDose</t>
-  </si>
-  <si>
-    <t>FEST-id for legemiddel DOSE</t>
-  </si>
-  <si>
-    <t>URI for NamingSystem er midlertidig, må normeres som en del av no-basis.</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestDose.id</t>
+    <t>Medication.code.coding:FestLegemiddeldose</t>
+  </si>
+  <si>
+    <t>FestLegemiddeldose</t>
+  </si>
+  <si>
+    <t>FEST-id for legemiddeldose</t>
+  </si>
+  <si>
+    <t>Unik identifikator (legemiddeldose-id) for minste plukkbare enhet av en bestemt merkevare, f.eks. 1 tablett eller 1 ampulle.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddeldose.id</t>
   </si>
   <si>
     <t>Medication.code.coding.id</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.extension</t>
+    <t>Medication.code.coding:FestLegemiddeldose.extension</t>
   </si>
   <si>
     <t>Medication.code.coding.extension</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.system</t>
+    <t>Medication.code.coding:FestLegemiddeldose.system</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -681,7 +681,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.version</t>
+    <t>Medication.code.coding:FestLegemiddeldose.version</t>
   </si>
   <si>
     <t>Medication.code.coding.version</t>
@@ -705,7 +705,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.code</t>
+    <t>Medication.code.coding:FestLegemiddeldose.code</t>
   </si>
   <si>
     <t>Medication.code.coding.code</t>
@@ -729,7 +729,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.display</t>
+    <t>Medication.code.coding:FestLegemiddeldose.display</t>
   </si>
   <si>
     <t>Medication.code.coding.display</t>
@@ -753,7 +753,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestDose.userSelected</t>
+    <t>Medication.code.coding:FestLegemiddeldose.userSelected</t>
   </si>
   <si>
     <t>Medication.code.coding.userSelected</t>
@@ -784,70 +784,151 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestMerkevare</t>
-  </si>
-  <si>
-    <t>FestMerkevare</t>
-  </si>
-  <si>
-    <t>FEST-id for legemiddel MERKEVARE</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.system</t>
+    <t>Medication.code.coding:FestLmrLopenr</t>
+  </si>
+  <si>
+    <t>FestLmrLopenr</t>
+  </si>
+  <si>
+    <t>Fest-løpenummer som identifiserer legemiddeldose</t>
+  </si>
+  <si>
+    <t>LMR-nummer brukt til å identifisere en endose/minste enhet som kan utleveres; overtatt fra Sykehusapotekenes Legemiddelregister.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.system</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/lmrLopenummer</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.code</t>
+  </si>
+  <si>
+    <t>7‑sifret nummer</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLmrLopenr.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare</t>
+  </si>
+  <si>
+    <t>FestLegemiddelMerkevare</t>
+  </si>
+  <si>
+    <t>FEST-id for LegemiddelMerkevare</t>
+  </si>
+  <si>
+    <t>Unik identifikator for en bestemt styrke og legemiddelform av en merkevare (branded product) i FEST.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.system</t>
   </si>
   <si>
     <t>http://dmp.no/fhir/NamingSystem/festLegemiddelMerkevare</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestMerkevare.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestMerkevare.userSelected</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning</t>
-  </si>
-  <si>
-    <t>FestPakning</t>
-  </si>
-  <si>
-    <t>FEST-id for legemiddel PAKNING</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.system</t>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelMerkevare.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning</t>
+  </si>
+  <si>
+    <t>FestLegemiddelpakning</t>
+  </si>
+  <si>
+    <t>FEST-id for legemiddelpakning</t>
+  </si>
+  <si>
+    <t>Unik identifikator for en konkret pakning av en merkevare i katalogen LegemiddelPakningMerkevare.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.system</t>
   </si>
   <si>
     <t>http://dmp.no/fhir/NamingSystem/festLegemiddelPakning</t>
   </si>
   <si>
-    <t>Medication.code.coding:FestPakning.version</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.code</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.display</t>
-  </si>
-  <si>
-    <t>Medication.code.coding:FestPakning.userSelected</t>
+    <t>Medication.code.coding:FestLegemiddelpakning.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:FestLegemiddelpakning.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer</t>
+  </si>
+  <si>
+    <t>Varenummer</t>
+  </si>
+  <si>
+    <t>Varenummer - Unikt produktnummer for legemiddelpakninger</t>
+  </si>
+  <si>
+    <t>Varenummeret for legemiddelpakningen; brukes som unikt produktnummer blant annet i resept- og apotekkjeden.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.system</t>
+  </si>
+  <si>
+    <t>http://dmp.no/fhir/NamingSystem/fest-varenummer</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.code</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:Varenummer.userSelected</t>
   </si>
   <si>
     <t>Medication.code.coding:FestVirkestoff</t>
@@ -856,7 +937,10 @@
     <t>FestVirkestoff</t>
   </si>
   <si>
-    <t>FEST-id for legemiddel VIRKESTOFF</t>
+    <t>FEST-id for legemiddel virkestoff</t>
+  </si>
+  <si>
+    <t>Unik identifikator (LegemiddelVirkestoff_ID) for rekvirering på virkestoffnivå i FEST.</t>
   </si>
   <si>
     <t>Medication.code.coding:FestVirkestoff.id</t>
@@ -892,28 +976,15 @@
     <t>Legemiddel fra lokal katalog</t>
   </si>
   <si>
+    <t xml:space="preserve">Skal kun benyttes for legemidler fra lokal legemiddelkatalog/legemiddelregister. Hvis LokaltLegemiddel benyttes skal det avtales med FHI hvordan LMR skal få tilgang til legemiddelkatalogen for å hente informasjon om det lokale legemidlet. </t>
+  </si>
+  <si>
     <t>Medication.code.coding:LokaltLegemiddel.id</t>
   </si>
   <si>
     <t>Medication.code.coding:LokaltLegemiddel.extension</t>
   </si>
   <si>
-    <t>Medication.code.coding:LokaltLegemiddel.extension:lokalLegemiddelkatalog</t>
-  </si>
-  <si>
-    <t>lokalLegemiddelkatalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhi.no/fhir/lmr/lokal-legemiddel-katalog}
-</t>
-  </si>
-  <si>
-    <t>Lokal Legemiddelkatalog</t>
-  </si>
-  <si>
-    <t>Informasjon om hvilken lokal legemiddelkatalog koden kommer fra.</t>
-  </si>
-  <si>
     <t>Medication.code.coding:LokaltLegemiddel.system</t>
   </si>
   <si>
@@ -936,6 +1007,45 @@
   </si>
   <si>
     <t>Medication.code.coding:LokaltLegemiddel.userSelected</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>SNOMED CT-kode for legemiddel</t>
+  </si>
+  <si>
+    <t>SNOMED CT-kode for legemiddel eller substans, for semantisk klassifisering og gruppering.</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.version</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.code</t>
+  </si>
+  <si>
+    <t>SNOMED CT-koden skal være et underbegrep av 'Legemiddel (product)' [763158003] eller 'Substans (substance)' [105590001].</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.display</t>
+  </si>
+  <si>
+    <t>Medication.code.coding:SCT.userSelected</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -1021,6 +1131,9 @@
   </si>
   <si>
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept defining the form of a medication.</t>
@@ -1049,10 +1162,7 @@
     <t>Medication.form.coding</t>
   </si>
   <si>
-    <t>Kodet legemiddelform. Inntil videre begrenset til Legemiddelform (7448) og kodesetteksempel basert på SNOMED CT fra HL7.</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>Kodet legemiddelform. Inntil videre begrenset til Legemiddelform (OID: 7448) og kodesetteksempel fra HL7 basert på SNOMED CT.</t>
   </si>
   <si>
     <t>Medication.form.coding.id</t>
@@ -1085,7 +1195,7 @@
     <t>7448</t>
   </si>
   <si>
-    <t>Kodeverk Legemiddelform (7448) fra FEST/eResept</t>
+    <t>Kodeverk Legemiddelform (OID:7448) fra FEST</t>
   </si>
   <si>
     <t>Medication.form.coding:7448.id</t>
@@ -1121,9 +1231,6 @@
     <t>Medication.form.coding:SCT</t>
   </si>
   <si>
-    <t>SCT</t>
-  </si>
-  <si>
     <t>SNOMED CT Form Codes</t>
   </si>
   <si>
@@ -1134,9 +1241,6 @@
   </si>
   <si>
     <t>Medication.form.coding:SCT.system</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Medication.form.coding:SCT.version</t>
@@ -1215,8 +1319,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept(Substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
-Reference(Substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
+    <t>CodeableConcept(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
+Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1642,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,17 +1755,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1670,25 +1774,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.5234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3129,11 +3233,9 @@
       <c r="X13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3166,24 +3268,24 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3206,13 +3308,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3263,25 +3365,25 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3292,10 +3394,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3321,10 +3423,10 @@
         <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>149</v>
@@ -3368,13 +3470,13 @@
         <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>181</v>
@@ -3395,7 +3497,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3488,7 +3590,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>189</v>
@@ -3554,10 +3656,10 @@
         <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>187</v>
@@ -3664,13 +3766,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3721,25 +3823,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3779,10 +3881,10 @@
         <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>149</v>
@@ -3826,13 +3928,13 @@
         <v>135</v>
       </c>
       <c r="AC19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>181</v>
@@ -3853,7 +3955,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4006,7 +4108,7 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>212</v>
@@ -4234,7 +4336,7 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>228</v>
@@ -4472,10 +4574,10 @@
         <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>187</v>
@@ -4556,7 +4658,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>197</v>
@@ -4582,13 +4684,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4639,25 +4741,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4668,7 +4770,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>199</v>
@@ -4697,10 +4799,10 @@
         <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>149</v>
@@ -4744,13 +4846,13 @@
         <v>135</v>
       </c>
       <c r="AC27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>181</v>
@@ -4771,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4782,7 +4884,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>201</v>
@@ -4830,7 +4932,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4898,7 +5000,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>211</v>
@@ -4924,7 +5026,7 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>212</v>
@@ -5012,7 +5114,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>219</v>
@@ -5041,7 +5143,7 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>221</v>
@@ -5126,7 +5228,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>227</v>
@@ -5152,7 +5254,7 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>228</v>
@@ -5240,7 +5342,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>235</v>
@@ -5356,13 +5458,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>182</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5387,13 +5489,13 @@
         <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>187</v>
@@ -5474,7 +5576,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>197</v>
@@ -5500,13 +5602,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5557,25 +5659,25 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5586,7 +5688,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>199</v>
@@ -5615,10 +5717,10 @@
         <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>149</v>
@@ -5662,13 +5764,13 @@
         <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>181</v>
@@ -5689,7 +5791,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5700,7 +5802,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>201</v>
@@ -5748,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>77</v>
@@ -5816,7 +5918,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>211</v>
@@ -5842,7 +5944,7 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>212</v>
@@ -5930,7 +6032,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>219</v>
@@ -6044,7 +6146,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>227</v>
@@ -6070,7 +6172,7 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>228</v>
@@ -6158,7 +6260,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>235</v>
@@ -6274,13 +6376,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>182</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -6305,13 +6407,13 @@
         <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>187</v>
@@ -6392,7 +6494,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>197</v>
@@ -6418,13 +6520,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6475,25 +6577,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6504,7 +6606,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>199</v>
@@ -6533,10 +6635,10 @@
         <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>149</v>
@@ -6580,13 +6682,13 @@
         <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>181</v>
@@ -6607,7 +6709,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6720,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>201</v>
@@ -6666,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6836,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>211</v>
@@ -6760,7 +6862,7 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>212</v>
@@ -6848,7 +6950,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>219</v>
@@ -6962,7 +7064,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>227</v>
@@ -6988,7 +7090,7 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>228</v>
@@ -7076,7 +7178,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>235</v>
@@ -7192,13 +7294,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>182</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -7223,10 +7325,10 @@
         <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>186</v>
@@ -7310,7 +7412,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>197</v>
@@ -7336,13 +7438,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7393,25 +7495,25 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7524,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>199</v>
@@ -7451,10 +7553,10 @@
         <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>149</v>
@@ -7498,13 +7600,13 @@
         <v>135</v>
       </c>
       <c r="AC51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>181</v>
@@ -7525,7 +7627,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7536,20 +7638,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7561,19 +7661,23 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7582,7 +7686,7 @@
         <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>77</v>
@@ -7621,39 +7725,39 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7661,7 +7765,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7676,20 +7780,18 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7698,7 +7800,7 @@
         <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>77</v>
@@ -7737,7 +7839,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7755,21 +7857,21 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7777,7 +7879,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -7792,18 +7894,18 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7851,7 +7953,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7869,21 +7971,21 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7891,7 +7993,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
@@ -7906,17 +8008,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7965,7 +8067,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7983,13 +8085,13 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -7997,7 +8099,7 @@
         <v>292</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8005,7 +8107,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8020,17 +8122,19 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8079,7 +8183,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8097,23 +8201,25 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8134,19 +8240,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8195,13 +8301,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8213,21 +8319,21 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8238,7 +8344,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8247,23 +8353,19 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8311,7 +8413,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8323,59 +8425,59 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>306</v>
+        <v>149</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8401,49 +8503,49 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8454,10 +8556,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8465,10 +8567,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8480,16 +8582,20 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8498,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>77</v>
@@ -8537,7 +8643,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8552,24 +8658,24 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>318</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8589,19 +8695,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8627,13 +8733,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8651,7 +8757,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8666,24 +8772,24 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>327</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>328</v>
+        <v>219</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8691,7 +8797,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -8703,19 +8809,21 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8763,7 +8871,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8775,38 +8883,38 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8815,21 +8923,21 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8865,51 +8973,51 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8917,10 +9025,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8932,19 +9040,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8981,23 +9089,25 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9009,23 +9119,25 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9043,19 +9155,23 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9103,50 +9219,50 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9158,17 +9274,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9205,37 +9319,37 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9246,21 +9360,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9269,23 +9383,21 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9321,51 +9433,51 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9373,7 +9485,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
@@ -9388,18 +9500,20 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9408,7 +9522,7 @@
         <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>77</v>
@@ -9447,7 +9561,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9465,21 +9579,21 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9487,7 +9601,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>87</v>
@@ -9502,18 +9616,18 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9561,7 +9675,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9579,21 +9693,21 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9601,13 +9715,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>77</v>
@@ -9616,17 +9730,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9675,7 +9789,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9693,21 +9807,21 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9715,7 +9829,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>87</v>
@@ -9730,19 +9844,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9791,7 +9903,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9809,25 +9921,23 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9848,19 +9958,19 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>343</v>
+        <v>237</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9909,13 +10019,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -9927,23 +10037,25 @@
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -9961,19 +10073,23 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10021,50 +10137,50 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10076,17 +10192,15 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10123,37 +10237,37 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10164,21 +10278,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10187,23 +10301,21 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10212,7 +10324,7 @@
         <v>77</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>77</v>
@@ -10239,51 +10351,51 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10291,7 +10403,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
@@ -10306,18 +10418,20 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10326,7 +10440,7 @@
         <v>77</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>77</v>
@@ -10365,7 +10479,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10383,21 +10497,21 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10405,7 +10519,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>87</v>
@@ -10420,18 +10534,18 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10479,7 +10593,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10497,21 +10611,21 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10519,13 +10633,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
@@ -10534,17 +10648,17 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10593,7 +10707,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10611,21 +10725,21 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10648,19 +10762,17 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10709,7 +10821,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10727,25 +10839,23 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>77</v>
       </c>
@@ -10766,19 +10876,19 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10827,13 +10937,13 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
@@ -10845,21 +10955,21 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10870,7 +10980,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10879,19 +10989,23 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -10939,7 +11053,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10951,59 +11065,59 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11029,49 +11143,49 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11082,10 +11196,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11093,10 +11207,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11108,20 +11222,16 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11130,7 +11240,7 @@
         <v>77</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>77</v>
@@ -11169,7 +11279,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11184,24 +11294,24 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>209</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11221,19 +11331,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11259,13 +11369,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11283,7 +11393,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>215</v>
+        <v>356</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11298,24 +11408,24 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>217</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11323,7 +11433,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>87</v>
@@ -11335,21 +11445,19 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11397,7 +11505,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11409,61 +11517,61 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11499,51 +11607,51 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11551,10 +11659,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11566,19 +11674,19 @@
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -11615,25 +11723,23 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
@@ -11645,21 +11751,21 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11670,7 +11776,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11679,23 +11785,19 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11743,7 +11845,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11755,38 +11857,38 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -11795,18 +11897,20 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11843,37 +11947,37 @@
         <v>77</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11884,10 +11988,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11895,10 +11999,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -11907,21 +12011,23 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>374</v>
+        <v>203</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -11969,13 +12075,13 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>371</v>
+        <v>207</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
@@ -11987,21 +12093,21 @@
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12021,18 +12127,20 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12081,7 +12189,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12093,38 +12201,38 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12133,21 +12241,21 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12195,74 +12303,72 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12311,39 +12417,39 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12351,7 +12457,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
@@ -12363,20 +12469,22 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>385</v>
+        <v>236</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>386</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12425,10 +12533,10 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>87</v>
@@ -12440,26 +12548,28 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>389</v>
+        <v>242</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>390</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12477,20 +12587,22 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12539,13 +12651,13 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
@@ -12557,21 +12669,21 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12594,13 +12706,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>367</v>
+        <v>171</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>397</v>
+        <v>172</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12651,7 +12763,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>396</v>
+        <v>174</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12663,41 +12775,41 @@
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
@@ -12706,15 +12818,17 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>372</v>
+        <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>402</v>
+        <v>177</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -12751,37 +12865,37 @@
         <v>77</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -12792,10 +12906,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12803,7 +12917,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>87</v>
@@ -12815,19 +12929,23 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12836,7 +12954,7 @@
         <v>77</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>77</v>
@@ -12875,7 +12993,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12887,38 +13005,38 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -12927,19 +13045,19 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12989,74 +13107,72 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13105,39 +13221,39 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13151,25 +13267,27 @@
         <v>87</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>410</v>
+        <v>229</v>
       </c>
       <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13217,7 +13335,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13232,24 +13350,24 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>411</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13269,19 +13387,23 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>413</v>
+        <v>236</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>414</v>
+        <v>237</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13329,7 +13451,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13344,20 +13466,2640 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>417</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN102">
+  <autoFilter ref="A1:AN125">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13367,7 +16109,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI124">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1099,7 +1099,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1139,7 +1139,7 @@
     <t>A coded concept defining the form of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1780,7 +1780,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.22265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$127</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4565" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -1319,8 +1319,8 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
-Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)</t>
+    <t>CodeableConcept
+Reference(Substance|4.0.1|Medication|4.0.1)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1332,10 +1332,30 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-substance|http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-medication)
+</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1746,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,7 +1785,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -15155,16 +15175,14 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>419</v>
@@ -15185,23 +15203,25 @@
         <v>166</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
       </c>
@@ -15222,17 +15242,17 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15281,10 +15301,10 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>87</v>
@@ -15296,26 +15316,28 @@
         <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="B119" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15336,16 +15358,18 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>402</v>
+        <v>160</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
       </c>
@@ -15369,13 +15393,11 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>77</v>
@@ -15393,10 +15415,10 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>87</v>
@@ -15408,24 +15430,24 @@
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>434</v>
+        <v>166</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15439,7 +15461,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>77</v>
@@ -15448,16 +15470,18 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
       </c>
@@ -15505,7 +15529,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15520,10 +15544,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15534,10 +15558,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15560,13 +15584,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>172</v>
+        <v>438</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15617,7 +15641,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15629,41 +15653,41 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>175</v>
+        <v>405</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>77</v>
@@ -15672,17 +15696,15 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -15731,25 +15753,25 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>181</v>
+        <v>442</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -15760,46 +15782,42 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>416</v>
+        <v>172</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>77</v>
       </c>
@@ -15847,25 +15865,25 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>418</v>
+        <v>174</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>77</v>
@@ -15876,21 +15894,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>77</v>
@@ -15902,15 +15920,17 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -15959,71 +15979,75 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>443</v>
+        <v>181</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
       </c>
@@ -16071,35 +16095,259 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK125" t="s" s="2">
+      <c r="AK126" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL125" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN125" t="s" s="2">
+      <c r="AL126" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>452</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN125">
+  <autoFilter ref="A1:AN127">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16109,7 +16357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI124">
+  <conditionalFormatting sqref="A2:AI126">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-lmdi-medication.xlsx
+++ b/StructureDefinition-lmdi-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1281,13 +1281,10 @@
 </t>
   </si>
   <si>
-    <t>Active or inactive ingredient</t>
-  </si>
-  <si>
-    <t>Identifies a particular constituent of interest in the product.</t>
-  </si>
-  <si>
-    <t>The ingredients need not be a complete list.  If an ingredient is not specified, this does not indicate whether an ingredient is present or absent.  If an ingredient is specified it does not mean that all ingredients are specified.  It is possible to specify both inactive and active ingredients.</t>
+    <t>Virkestoff(er) som inngår i legemiddelet. Skal fylles ut hvis code ikke har verdi. Bør fylles ut hvis code.coding[LokaltLegemiddel] har verdi.</t>
+  </si>
+  <si>
+    <t>For legemidler identifisert med FEST-koder (FestLegemiddeldose, FestLegemiddelMerkevare, FestLegemiddelpakning, FestVirkestoff, Varenummer) eller SNOMED CT er ingredient valgfritt, da virkestoffinformasjon kan hentes fra disse katalogene. For lokale legemidler anbefales det å oppgi ingredient for bedre sporbarhet.</t>
   </si>
   <si>
     <t>.scopesRole[typeCode=INGR]</t>
@@ -12350,7 +12347,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>376</v>
       </c>
@@ -13268,7 +13265,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>388</v>
       </c>
@@ -14186,7 +14183,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>398</v>
       </c>
@@ -14678,10 +14675,10 @@
         <v>408</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14749,7 +14746,7 @@
         <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>77</v>
@@ -14760,10 +14757,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14872,10 +14869,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14986,14 +14983,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15015,10 +15012,10 @@
         <v>132</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>149</v>
@@ -15073,7 +15070,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15102,10 +15099,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15128,17 +15125,17 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -15175,7 +15172,7 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AC117" s="2"/>
       <c r="AD117" t="s" s="2">
@@ -15185,7 +15182,7 @@
         <v>136</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>87</v>
@@ -15203,24 +15200,24 @@
         <v>166</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -15242,17 +15239,17 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -15301,7 +15298,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>87</v>
@@ -15319,24 +15316,24 @@
         <v>166</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C119" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -15361,14 +15358,14 @@
         <v>160</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -15415,7 +15412,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>87</v>
@@ -15433,21 +15430,21 @@
         <v>166</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15473,14 +15470,14 @@
         <v>236</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15529,7 +15526,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15547,7 +15544,7 @@
         <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15558,10 +15555,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15587,10 +15584,10 @@
         <v>402</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -15641,7 +15638,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -15656,7 +15653,7 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>405</v>
@@ -15665,15 +15662,15 @@
         <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
         <v>441</v>
       </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="B122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15699,10 +15696,10 @@
         <v>407</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15753,7 +15750,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -15771,7 +15768,7 @@
         <v>352</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -15782,10 +15779,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15894,10 +15891,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16008,14 +16005,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -16037,10 +16034,10 @@
         <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>149</v>
@@ -16095,7 +16092,7 @@
         <v>77</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -16124,10 +16121,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16153,10 +16150,10 @@
         <v>171</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -16207,7 +16204,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16231,15 +16228,15 @@
         <v>77</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16262,13 +16259,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16319,7 +16316,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -16337,23 +16334,23 @@
         <v>352</v>
       </c>
       <c r="AL127" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN127">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
